--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_20-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_20-46.xlsx
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -3186,17 +3189,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3204,7 +3207,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3212,7 +3215,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3230,7 +3233,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3256,7 +3259,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="93" ht="25.5" customHeight="1">
       <c r="K93" s="10">
-        <v>4831.0600000000004</v>
+        <v>4833.0600000000004</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
@@ -3287,19 +3290,19 @@
     </row>
     <row r="94" ht="17.25" customHeight="1">
       <c t="s" r="A94" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c t="s" r="F94" s="12">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
       <c t="s" r="I94" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
